--- a/ERP, STUDENT, and CAB Databases/Campus/Data for Assignment001 (Create Campus Table ).xlsx
+++ b/ERP, STUDENT, and CAB Databases/Campus/Data for Assignment001 (Create Campus Table ).xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New Databases\Campus\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
@@ -15,8 +10,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -257,12 +252,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-4009]General"/>
     <numFmt numFmtId="165" formatCode="[$-14009]yyyy/mm/dd;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -449,7 +444,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -484,7 +479,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -661,21 +656,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:U29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="L6" sqref="L6:L25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.85546875" style="6" customWidth="1"/>
     <col min="2" max="2" width="3.140625" style="6" bestFit="1" customWidth="1"/>
@@ -688,7 +683,7 @@
     <col min="9" max="9" width="13.140625" style="6" customWidth="1"/>
     <col min="10" max="10" width="12.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="25.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" style="6" customWidth="1"/>
     <col min="13" max="13" width="35.42578125" style="6" customWidth="1"/>
     <col min="14" max="14" width="3.85546875" style="6" customWidth="1"/>
     <col min="15" max="15" width="4.5703125" style="6" customWidth="1"/>
@@ -696,13 +691,13 @@
     <col min="17" max="17" width="9.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="23.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.7109375" style="6" customWidth="1"/>
     <col min="21" max="21" width="43.28515625" style="6" customWidth="1"/>
     <col min="22" max="22" width="3.85546875" style="6" customWidth="1"/>
     <col min="23" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:21" ht="21" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:21" ht="21">
       <c r="B4" s="18" t="s">
         <v>5</v>
       </c>
@@ -728,7 +723,7 @@
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:21">
       <c r="B5" s="8" t="s">
         <v>0</v>
       </c>
@@ -784,7 +779,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:21" ht="30">
       <c r="B6" s="9">
         <v>1</v>
       </c>
@@ -842,7 +837,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="2:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:21" ht="30">
       <c r="B7" s="9">
         <v>2</v>
       </c>
@@ -900,7 +895,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="2:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:21" ht="30">
       <c r="B8" s="9">
         <v>3</v>
       </c>
@@ -958,7 +953,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="2:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:21" ht="30">
       <c r="B9" s="9">
         <v>4</v>
       </c>
@@ -1016,7 +1011,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="2:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:21" ht="30">
       <c r="B10" s="9">
         <v>5</v>
       </c>
@@ -1053,7 +1048,7 @@
       </c>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="2:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:21" ht="30">
       <c r="B11" s="1"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -1081,7 +1076,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="2:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:21" ht="30">
       <c r="B12" s="1"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -1109,7 +1104,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="2:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:21" ht="30">
       <c r="B13" s="1"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -1137,7 +1132,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="2:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:21" ht="30">
       <c r="B14" s="1"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -1165,7 +1160,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="2:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:21" ht="30">
       <c r="B15" s="1"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -1193,7 +1188,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="2:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:21" ht="30">
       <c r="B16" s="1"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -1221,7 +1216,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" ht="30">
       <c r="B17" s="1"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -1249,7 +1244,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" ht="30">
       <c r="B18" s="1"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -1277,7 +1272,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" ht="30">
       <c r="B19" s="1"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -1305,7 +1300,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" ht="30">
       <c r="B20" s="1"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -1333,7 +1328,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" ht="30">
       <c r="B21" s="1"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -1361,7 +1356,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" ht="30">
       <c r="B22" s="1"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -1389,7 +1384,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" ht="30">
       <c r="B23" s="1"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -1417,7 +1412,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" ht="30">
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1445,7 +1440,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" ht="30">
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1473,16 +1468,16 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13">
       <c r="J26" s="15"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13">
       <c r="J27" s="15"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13">
       <c r="J28" s="15"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13">
       <c r="J29" s="15"/>
     </row>
   </sheetData>

--- a/ERP, STUDENT, and CAB Databases/Campus/Data for Assignment001 (Create Campus Table ).xlsx
+++ b/ERP, STUDENT, and CAB Databases/Campus/Data for Assignment001 (Create Campus Table ).xlsx
@@ -1,18 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.100.10\Faculty Common\saleel\Saleel\New DATA\Saleel Tables VER2\ERP, STUDENT, and CAB Databases\Campus\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91870AC-7E41-4FD6-AA5A-3BE4A74CB1A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -252,12 +264,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-4009]General"/>
     <numFmt numFmtId="165" formatCode="[$-14009]yyyy/mm/dd;@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -385,7 +397,7 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
-    <cellStyle name="Excel Built-in Normal" xfId="2"/>
+    <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -656,21 +668,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B4:U29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6:L25"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" style="6" customWidth="1"/>
     <col min="2" max="2" width="3.140625" style="6" bestFit="1" customWidth="1"/>
@@ -697,7 +709,7 @@
     <col min="23" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:21" ht="21">
+    <row r="4" spans="2:21" ht="21" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
         <v>5</v>
       </c>
@@ -723,7 +735,7 @@
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
     </row>
-    <row r="5" spans="2:21">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
         <v>0</v>
       </c>
@@ -779,7 +791,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:21" ht="30">
+    <row r="6" spans="2:21" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="9">
         <v>1</v>
       </c>
@@ -837,7 +849,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="2:21" ht="30">
+    <row r="7" spans="2:21" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="9">
         <v>2</v>
       </c>
@@ -895,7 +907,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="2:21" ht="30">
+    <row r="8" spans="2:21" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="9">
         <v>3</v>
       </c>
@@ -953,7 +965,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="2:21" ht="30">
+    <row r="9" spans="2:21" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="9">
         <v>4</v>
       </c>
@@ -1011,7 +1023,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="2:21" ht="30">
+    <row r="10" spans="2:21" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="9">
         <v>5</v>
       </c>
@@ -1048,7 +1060,7 @@
       </c>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="2:21" ht="30">
+    <row r="11" spans="2:21" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -1076,7 +1088,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="2:21" ht="30">
+    <row r="12" spans="2:21" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -1104,7 +1116,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="2:21" ht="30">
+    <row r="13" spans="2:21" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -1132,7 +1144,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="2:21" ht="30">
+    <row r="14" spans="2:21" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -1160,7 +1172,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="2:21" ht="30">
+    <row r="15" spans="2:21" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -1188,7 +1200,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="2:21" ht="30">
+    <row r="16" spans="2:21" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -1216,7 +1228,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="2:13" ht="30">
+    <row r="17" spans="2:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -1244,7 +1256,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="2:13" ht="30">
+    <row r="18" spans="2:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -1272,7 +1284,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="2:13" ht="30">
+    <row r="19" spans="2:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -1300,7 +1312,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="2:13" ht="30">
+    <row r="20" spans="2:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -1328,7 +1340,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="2:13" ht="30">
+    <row r="21" spans="2:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -1356,7 +1368,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="2:13" ht="30">
+    <row r="22" spans="2:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -1384,7 +1396,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="2:13" ht="30">
+    <row r="23" spans="2:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -1412,7 +1424,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="2:13" ht="30">
+    <row r="24" spans="2:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1440,7 +1452,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="2:13" ht="30">
+    <row r="25" spans="2:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1468,16 +1480,16 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="2:13">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J26" s="15"/>
     </row>
-    <row r="27" spans="2:13">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J27" s="15"/>
     </row>
-    <row r="28" spans="2:13">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J28" s="15"/>
     </row>
-    <row r="29" spans="2:13">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J29" s="15"/>
     </row>
   </sheetData>
